--- a/result/기준초과횟수_결과_단위포함.xlsx
+++ b/result/기준초과횟수_결과_단위포함.xlsx
@@ -37,124 +37,124 @@
     <t>CO2 (ppm)</t>
   </si>
   <si>
+    <t>Indoor Golf Simulation Facility</t>
+  </si>
+  <si>
+    <t>Childcare Center</t>
+  </si>
+  <si>
+    <t>Underground Parking Facility</t>
+  </si>
+  <si>
+    <t>Daycare Center</t>
+  </si>
+  <si>
+    <t>Educational Facility</t>
+  </si>
+  <si>
     <t>Subway Station</t>
   </si>
   <si>
-    <t>Daycare Center</t>
-  </si>
-  <si>
-    <t>Gasan A1 Tower Underground Parking</t>
-  </si>
-  <si>
-    <t>Indoor Golf Simulator Facility</t>
-  </si>
-  <si>
-    <t>Children's Facility</t>
-  </si>
-  <si>
-    <t>Academy</t>
+    <t>10535/49008</t>
+  </si>
+  <si>
+    <t>871/244439</t>
+  </si>
+  <si>
+    <t>47/193479</t>
+  </si>
+  <si>
+    <t>9221/445833</t>
+  </si>
+  <si>
+    <t>853/244092</t>
   </si>
   <si>
     <t>5757/262450</t>
   </si>
   <si>
-    <t>9221/445833</t>
-  </si>
-  <si>
-    <t>47/193479</t>
-  </si>
-  <si>
-    <t>10535/49008</t>
-  </si>
-  <si>
-    <t>871/244439</t>
-  </si>
-  <si>
-    <t>853/244092</t>
+    <t>0/49008</t>
+  </si>
+  <si>
+    <t>6398/244439</t>
+  </si>
+  <si>
+    <t>0/193479</t>
+  </si>
+  <si>
+    <t>21150/445833</t>
+  </si>
+  <si>
+    <t>1381/244092</t>
   </si>
   <si>
     <t>15200/262450</t>
   </si>
   <si>
-    <t>21150/445833</t>
-  </si>
-  <si>
-    <t>0/193479</t>
-  </si>
-  <si>
-    <t>0/49008</t>
-  </si>
-  <si>
-    <t>6398/244439</t>
-  </si>
-  <si>
-    <t>1381/244092</t>
+    <t>124872/244439</t>
+  </si>
+  <si>
+    <t>4632/193479</t>
+  </si>
+  <si>
+    <t>19025/445833</t>
+  </si>
+  <si>
+    <t>33280/244092</t>
   </si>
   <si>
     <t>277/262450</t>
   </si>
   <si>
-    <t>19025/445833</t>
-  </si>
-  <si>
-    <t>4632/193479</t>
-  </si>
-  <si>
-    <t>124872/244439</t>
-  </si>
-  <si>
-    <t>33280/244092</t>
+    <t>347/244439</t>
+  </si>
+  <si>
+    <t>224/193479</t>
+  </si>
+  <si>
+    <t>1/445833</t>
+  </si>
+  <si>
+    <t>0/244092</t>
   </si>
   <si>
     <t>0/262450</t>
   </si>
   <si>
-    <t>1/445833</t>
-  </si>
-  <si>
-    <t>224/193479</t>
-  </si>
-  <si>
-    <t>347/244439</t>
-  </si>
-  <si>
-    <t>0/244092</t>
+    <t>83/244439</t>
+  </si>
+  <si>
+    <t>17/193479</t>
   </si>
   <si>
     <t>1777/445833</t>
   </si>
   <si>
-    <t>17/193479</t>
-  </si>
-  <si>
-    <t>83/244439</t>
-  </si>
-  <si>
     <t>1/244092</t>
   </si>
   <si>
+    <t>101380/244439</t>
+  </si>
+  <si>
+    <t>320/193479</t>
+  </si>
+  <si>
+    <t>363941/445833</t>
+  </si>
+  <si>
+    <t>742/244092</t>
+  </si>
+  <si>
     <t>109269/262450</t>
   </si>
   <si>
-    <t>363941/445833</t>
-  </si>
-  <si>
-    <t>320/193479</t>
-  </si>
-  <si>
-    <t>101380/244439</t>
-  </si>
-  <si>
-    <t>742/244092</t>
+    <t>31534/244439</t>
+  </si>
+  <si>
+    <t>890/193479</t>
   </si>
   <si>
     <t>18632/445833</t>
-  </si>
-  <si>
-    <t>890/193479</t>
-  </si>
-  <si>
-    <t>31534/244439</t>
   </si>
   <si>
     <t>68826/244092</t>
@@ -555,19 +555,19 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -581,16 +581,16 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>44</v>
@@ -607,16 +607,16 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
@@ -633,19 +633,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -665,13 +665,13 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -691,13 +691,13 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
